--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -660,7 +660,7 @@
         <v>0.05831820048693465</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.064463373210484</v>
+        <v>0.06446337321048397</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05395245741260782</v>
+        <v>0.04990470997526823</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07123737656636221</v>
+        <v>0.07259550962536583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0561018038034547</v>
+        <v>0.06335781849428358</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003019381338265263</v>
+        <v>0.002914794877003332</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002401980227148931</v>
+        <v>0.002922367285344115</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01369645002730525</v>
+        <v>0.01342802259402771</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02844467824185967</v>
+        <v>0.02737950557201298</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03684663579977756</v>
+        <v>0.03575873113881438</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03686530371185331</v>
+        <v>0.03993410187413927</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1272518690222937</v>
+        <v>0.1247055815106496</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1971325286361131</v>
+        <v>0.1980880328367709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1988214280308236</v>
+        <v>0.2169065517857387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0329928345368477</v>
+        <v>0.0358153664077337</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02171784387707224</v>
+        <v>0.0231999122286073</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05884862562618225</v>
+        <v>0.06080745872262824</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06243115535461886</v>
+        <v>0.06320569569694139</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09188139457849642</v>
+        <v>0.09339248884335295</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1049836640777918</v>
+        <v>0.1083084646123631</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2388232269818606</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.2823284554984765</v>
+        <v>0.2823284554984764</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3901812986061384</v>
+        <v>0.3949271724716187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3346171598018871</v>
+        <v>0.3340802742004669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3952583406098156</v>
+        <v>0.3956790476907134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02606791299938864</v>
+        <v>0.0272579049481694</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06740660680872276</v>
+        <v>0.06517093855795388</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07515308767978322</v>
+        <v>0.07549343589965571</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2282545349092268</v>
+        <v>0.2291102409195219</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2101229344327885</v>
+        <v>0.2067873735980866</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2450371367001157</v>
+        <v>0.2450985134087668</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5086860804567689</v>
+        <v>0.51276379318723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4403657554592076</v>
+        <v>0.433302637323715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5405773068037943</v>
+        <v>0.534008256874536</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05984679675042989</v>
+        <v>0.06226047554355447</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1177243023333572</v>
+        <v>0.1165203344573778</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1360854128382122</v>
+        <v>0.1345756658968334</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.292230793053353</v>
+        <v>0.3010529463293198</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2695947733837697</v>
+        <v>0.2719184130203492</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3205929669007342</v>
+        <v>0.3228326669480143</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.4630257029079905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6269509080670301</v>
+        <v>0.62695090806703</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1070758858073882</v>
@@ -878,7 +878,7 @@
         <v>0.2897403329543091</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3795095520497922</v>
+        <v>0.3795095520497923</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3582573500957986</v>
+        <v>0.345651723084084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3605670254667293</v>
+        <v>0.352493960580289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5111518994019467</v>
+        <v>0.5075569926904108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04829284233768034</v>
+        <v>0.05229629090044903</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07497331147012977</v>
+        <v>0.07455222638256843</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09808672503436161</v>
+        <v>0.09911263657604635</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2256957595378582</v>
+        <v>0.2253122012668413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2288759169821381</v>
+        <v>0.2314825709044374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3141767403721476</v>
+        <v>0.313881115806695</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5864206199193432</v>
+        <v>0.5802875634189256</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5863488298955122</v>
+        <v>0.588264870929083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7816815227240255</v>
+        <v>0.7812160474531221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1984810855907664</v>
+        <v>0.2048931238538073</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1824259307845409</v>
+        <v>0.178268063628772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1941594472045414</v>
+        <v>0.1938557377721272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3688523336806552</v>
+        <v>0.3608310193540678</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3572654236526543</v>
+        <v>0.357275999121193</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4557208256550139</v>
+        <v>0.4575313130545148</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>0.07059284685387358</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.09390983338821829</v>
+        <v>0.0939098333882183</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1907792629194774</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3116405321240431</v>
+        <v>0.3095660691782322</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.297438464499906</v>
+        <v>0.3042734369601965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3853897097774156</v>
+        <v>0.3848901311092605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02750354391170791</v>
+        <v>0.02677305467422291</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05525256639017945</v>
+        <v>0.05640861248631555</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07524606029718943</v>
+        <v>0.07494535086413892</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1714574787468979</v>
+        <v>0.1699658745540656</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1809334155794524</v>
+        <v>0.1817386284477862</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2316793334704396</v>
+        <v>0.2344740696982642</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3953864879555776</v>
+        <v>0.3891462683357788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3800584342277679</v>
+        <v>0.3858301692997555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4946889713556564</v>
+        <v>0.4958760761017937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05593671649737408</v>
+        <v>0.05360790705595822</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08845500493371777</v>
+        <v>0.08891793031423312</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1160954951821843</v>
+        <v>0.115445307937775</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2140805706346861</v>
+        <v>0.2123475118571085</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2237085842108056</v>
+        <v>0.2229587758152944</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2905188618601361</v>
+        <v>0.2920829229090811</v>
       </c>
     </row>
     <row r="16">
